--- a/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Base/Nuts and screws/Base Nuts And screws.xlsx
+++ b/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Base/Nuts and screws/Base Nuts And screws.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\Base\Nuts and screws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BC8F53-C253-450F-84BE-8B4784F0E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73FF936-F21C-46B6-BC5B-6CBA78423BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{684C28C4-73AD-4F45-8D4B-F2B514867060}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Part</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Base Screw</t>
   </si>
   <si>
-    <t>ISO (XXXX)</t>
-  </si>
-  <si>
     <t>M5</t>
   </si>
   <si>
@@ -139,13 +136,19 @@
   </si>
   <si>
     <t>For the Screws</t>
+  </si>
+  <si>
+    <t>ISO (4032)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +168,6 @@
       <color rgb="FF1B1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,11 +245,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -274,15 +268,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,7 +608,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,13 +644,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -671,13 +661,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>70</v>
@@ -698,16 +688,16 @@
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
         <v>70</v>
@@ -750,7 +740,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,20 +750,29 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +794,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>19</v>

--- a/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Base/Nuts and screws/Base Nuts And screws.xlsx
+++ b/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Base/Nuts and screws/Base Nuts And screws.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\Base\Nuts and screws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73FF936-F21C-46B6-BC5B-6CBA78423BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD234511-4EA0-4365-AD8F-4C717539247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{684C28C4-73AD-4F45-8D4B-F2B514867060}"/>
+    <workbookView xWindow="5040" yWindow="2130" windowWidth="21600" windowHeight="11295" xr2:uid="{684C28C4-73AD-4F45-8D4B-F2B514867060}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="1" r:id="rId1"/>
@@ -259,6 +259,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -267,9 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +608,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -681,12 +681,12 @@
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
@@ -711,12 +711,12 @@
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -771,7 +771,7 @@
       <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -856,7 +856,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -881,7 +881,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>

--- a/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Base/Nuts and screws/Base Nuts And screws.xlsx
+++ b/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Base/Nuts and screws/Base Nuts And screws.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\Base\Nuts and screws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD234511-4EA0-4365-AD8F-4C717539247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFEE436-EEC6-4719-B07A-69B4E602BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2130" windowWidth="21600" windowHeight="11295" xr2:uid="{684C28C4-73AD-4F45-8D4B-F2B514867060}"/>
+    <workbookView xWindow="5385" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{684C28C4-73AD-4F45-8D4B-F2B514867060}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,14 @@
       <color rgb="FF1B1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,10 +253,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -271,8 +280,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4D1F97-13C8-4ADA-A182-566C569B2CDE}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +694,7 @@
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
